--- a/Team-Data/2008-09/12-22-2008-09.xlsx
+++ b/Team-Data/2008-09/12-22-2008-09.xlsx
@@ -811,16 +811,16 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -847,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -862,19 +862,19 @@
         <v>19</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX2" t="n">
         <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.926</v>
+        <v>0.929</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P3" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>16.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.5</v>
+        <v>102.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1020,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,16 +1032,16 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1187,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1250,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1279,124 +1279,124 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.885</v>
+        <v>0.852</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1557,61 +1557,61 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1760,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1781,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1793,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1903,22 +1903,22 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
@@ -1942,13 +1942,13 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2106,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2145,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>23</v>
@@ -2267,7 +2267,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2279,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
@@ -2318,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2449,7 +2449,7 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2467,7 +2467,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2494,13 +2494,13 @@
         <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2661,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>24</v>
@@ -2676,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2694,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2706,7 +2706,7 @@
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.471</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2977,28 +2977,28 @@
         <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -3013,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3058,13 +3058,13 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3210,10 +3210,10 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
         <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>16</v>
@@ -3359,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3389,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3401,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3413,22 +3413,22 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.464</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,43 +3481,43 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3529,31 +3529,31 @@
         <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
       </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3586,25 +3586,25 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3616,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3756,13 +3756,13 @@
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3905,7 +3905,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3965,7 +3965,7 @@
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -4108,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4153,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,13 +4269,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4323,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4451,7 +4451,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
         <v>16</v>
@@ -4633,7 +4633,7 @@
         <v>5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4702,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4815,10 +4815,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4836,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4848,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>28</v>
@@ -4997,7 +4997,7 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -5048,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.6</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5161,46 +5161,46 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5212,10 +5212,10 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>10</v>
@@ -5227,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
@@ -5242,19 +5242,19 @@
         <v>7</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>11</v>
-      </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5373,10 +5373,10 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5543,13 +5543,13 @@
         <v>2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -5564,7 +5564,7 @@
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5597,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5725,7 +5725,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5758,7 +5758,7 @@
         <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5788,13 +5788,13 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>24</v>
@@ -6089,7 +6089,7 @@
         <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6122,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>

--- a/Team-Data/2008-09/12-22-2008-09.xlsx
+++ b/Team-Data/2008-09/12-22-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -789,25 +856,25 @@
         <v>17</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX2" t="n">
         <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.926</v>
+        <v>0.929</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P3" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>16.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.5</v>
+        <v>102.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -953,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,16 +1032,16 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -998,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1177,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -1212,136 +1279,136 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.802</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
         <v>6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1353,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.885</v>
+        <v>0.852</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1490,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
@@ -1505,46 +1572,46 @@
         <v>22</v>
       </c>
       <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1678,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>7</v>
@@ -1693,28 +1760,28 @@
         <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1723,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.643</v>
+        <v>0.63</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="P8" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
         <v>31</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1848,58 +1915,58 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1908,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>24</v>
@@ -2048,13 +2115,13 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="AS9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.7</v>
+        <v>39.1</v>
       </c>
       <c r="J10" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O10" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="P10" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U10" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y10" t="n">
         <v>6.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,34 +2288,34 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="J11" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.446</v>
+        <v>0.441</v>
       </c>
       <c r="L11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M11" t="n">
         <v>18.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P11" t="n">
         <v>25.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>32.6</v>
       </c>
       <c r="T11" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U11" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V11" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,16 +2461,16 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2424,28 +2491,28 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY11" t="n">
         <v>27</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2457,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>2</v>
@@ -2588,13 +2655,13 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>24</v>
@@ -2609,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2627,19 +2694,19 @@
         <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="H13" t="n">
         <v>49.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>84.5</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M13" t="n">
         <v>16.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.311</v>
+        <v>0.308</v>
       </c>
       <c r="O13" t="n">
         <v>16.7</v>
@@ -2707,52 +2774,52 @@
         <v>22.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S13" t="n">
         <v>30.1</v>
       </c>
       <c r="T13" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
         <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.9</v>
+        <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2761,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2788,37 +2855,37 @@
         <v>28</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -2865,43 +2932,43 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
         <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.2</v>
+        <v>45.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2910,28 +2977,28 @@
         <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2946,37 +3013,37 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.346</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3056,37 +3123,37 @@
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T15" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U15" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="V15" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3101,37 +3168,37 @@
         <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3140,22 +3207,22 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
         <v>13</v>
       </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
         <v>23</v>
@@ -3182,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3307,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3352,16 +3419,16 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.464</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,43 +3481,43 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3462,40 +3529,40 @@
         <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
       </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3504,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3519,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-7.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3695,16 +3762,16 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3728,7 +3795,7 @@
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>0.481</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,43 +3845,43 @@
         <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.789</v>
+        <v>0.791</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
         <v>41.3</v>
       </c>
       <c r="U19" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V19" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -3823,22 +3890,22 @@
         <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
         <v>24.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,25 +3920,25 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>7</v>
@@ -3880,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>18</v>
@@ -3892,13 +3959,13 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3907,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4041,10 +4108,10 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
@@ -4053,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4068,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4083,10 +4150,10 @@
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
@@ -4247,7 +4314,7 @@
         <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT21" t="n">
         <v>9</v>
@@ -4256,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
         <v>16</v>
@@ -4432,7 +4499,7 @@
         <v>19</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
@@ -4447,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.373</v>
+        <v>0.367</v>
       </c>
       <c r="O23" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P23" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.71</v>
+        <v>0.713</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
@@ -4554,19 +4621,19 @@
         <v>3.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4611,10 +4678,10 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4626,19 +4693,19 @@
         <v>10</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4760,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4769,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4787,13 +4854,13 @@
         <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4817,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4954,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>2</v>
@@ -4969,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4981,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -4993,10 +5060,10 @@
         <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -5049,91 +5116,91 @@
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.395</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="S26" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,10 +5212,10 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>10</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
@@ -5169,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>7</v>
@@ -5178,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -5216,34 +5283,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.241</v>
+        <v>0.25</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.316</v>
@@ -5252,67 +5319,67 @@
         <v>18</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
       </c>
       <c r="S27" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T27" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
         <v>15.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>13</v>
@@ -5330,7 +5397,7 @@
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5348,10 +5415,10 @@
         <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -5398,103 +5465,103 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.615</v>
       </c>
       <c r="H28" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J28" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.401</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>21.7</v>
       </c>
       <c r="V28" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>21</v>
@@ -5530,13 +5597,13 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.393</v>
+        <v>0.37</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5604,46 +5671,46 @@
         <v>0.445</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.377</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.834</v>
+        <v>0.837</v>
       </c>
       <c r="R29" t="n">
         <v>8.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
         <v>13.3</v>
       </c>
       <c r="W29" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
         <v>18.8</v>
@@ -5652,16 +5719,16 @@
         <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -5670,13 +5737,13 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5688,13 +5755,13 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,13 +5770,13 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>6</v>
@@ -5718,13 +5785,13 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,13 +5919,13 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6037,10 +6104,10 @@
         <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>
@@ -6067,7 +6134,7 @@
         <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-22-2008-09</t>
+          <t>2008-12-22</t>
         </is>
       </c>
     </row>
